--- a/data/orderPool.xlsx
+++ b/data/orderPool.xlsx
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1139,7 +1139,7 @@
         <v>43419</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1169,7 +1169,7 @@
         <v>43338</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1199,7 +1199,7 @@
         <v>43386</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1229,7 +1229,7 @@
         <v>43326</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1259,7 +1259,7 @@
         <v>43368</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1289,7 +1289,7 @@
         <v>43419</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1319,7 +1319,7 @@
         <v>43342</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1349,7 +1349,7 @@
         <v>43419</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1379,7 +1379,7 @@
         <v>43431</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1409,7 +1409,7 @@
         <v>43395</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1439,7 +1439,7 @@
         <v>43443</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1469,7 +1469,7 @@
         <v>43419</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1499,7 +1499,7 @@
         <v>43430</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1529,7 +1529,7 @@
         <v>43545</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1559,7 +1559,7 @@
         <v>43445</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1589,7 +1589,7 @@
         <v>43542</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1619,7 +1619,7 @@
         <v>43443</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1649,7 +1649,7 @@
         <v>43419</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1679,7 +1679,7 @@
         <v>43341</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1709,7 +1709,7 @@
         <v>43389</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1739,7 +1739,7 @@
         <v>43443</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1769,7 +1769,7 @@
         <v>43459</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1799,7 +1799,7 @@
         <v>43576</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1829,7 +1829,7 @@
         <v>43025</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1859,7 +1859,7 @@
         <v>43524</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1889,7 +1889,7 @@
         <v>43524</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1919,7 +1919,7 @@
         <v>43568</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1949,7 +1949,7 @@
         <v>43467</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1979,7 +1979,7 @@
         <v>43590</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2009,7 +2009,7 @@
         <v>43443</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2039,7 +2039,7 @@
         <v>43445</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2069,7 +2069,7 @@
         <v>43445</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2099,7 +2099,7 @@
         <v>43443</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2129,7 +2129,7 @@
         <v>43610</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2159,7 +2159,7 @@
         <v>43580</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2189,7 +2189,7 @@
         <v>43498</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2219,7 +2219,7 @@
         <v>43569</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2249,7 +2249,7 @@
         <v>43485</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2279,7 +2279,7 @@
         <v>43585</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2309,7 +2309,7 @@
         <v>43186</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2339,7 +2339,7 @@
         <v>43617</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2369,7 +2369,7 @@
         <v>43623</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2399,7 +2399,7 @@
         <v>43552</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2429,7 +2429,7 @@
         <v>43445</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2459,7 +2459,7 @@
         <v>43524</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2489,7 +2489,7 @@
         <v>43538</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2519,7 +2519,7 @@
         <v>43433</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2549,7 +2549,7 @@
         <v>43498</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2579,7 +2579,7 @@
         <v>43529</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/orderPool.xlsx
+++ b/data/orderPool.xlsx
@@ -1068,10 +1068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1112,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26">
+    <row r="2" spans="1:9" ht="26" hidden="1">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="8" t="s">
         <v>80</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="10" t="s">
         <v>78</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="15" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>3000</v>
       </c>
       <c r="D25" s="4">
-        <v>43022</v>
+        <v>43387</v>
       </c>
       <c r="E25" s="3">
         <v>43595</v>
@@ -1826,13 +1827,13 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>43025</v>
+        <v>43390</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="16" t="s">
         <v>48</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="10" t="s">
         <v>43</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="10" t="s">
         <v>67</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="10" t="s">
         <v>73</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="10" t="s">
         <v>74</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="10" t="s">
         <v>66</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="10" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="10" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="10" t="s">
         <v>9</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="10" t="s">
         <v>82</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="10" t="s">
         <v>33</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="10" t="s">
         <v>46</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="10" t="s">
         <v>77</v>
       </c>
@@ -2583,6 +2584,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I50">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2017" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:I50">
     <sortCondition ref="E10"/>
   </sortState>
